--- a/biology/Zoologie/Galerucella_nymphaeae/Galerucella_nymphaeae.xlsx
+++ b/biology/Zoologie/Galerucella_nymphaeae/Galerucella_nymphaeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galerucella nymphaeae, la galéruque du nénuphar (ou nénufar), est une espèce européenne d'insectes coléoptères de la famille des Chrysomelidae, ou plus exactement le nom d'un complexe d'espèces encore à préciser[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galerucella nymphaeae, la galéruque du nénuphar (ou nénufar), est une espèce européenne d'insectes coléoptères de la famille des Chrysomelidae, ou plus exactement le nom d'un complexe d'espèces encore à préciser.
 Avec le fort recul ou la disparition localement des grenouilles et crapauds (qui consomment l'adulte mais non les larves ou nymphes), cet insecte peut faire d'importants dégâts sur les feuilles de nénuphars où il effectue la totalité de son cycle de vie (hors-hiver quand les feuilles de nénuphar meurent ; le coléoptère hiberne alors à proximité des pièces d'eau). 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’adulte (imago) mesure 5 à 8 mm de long. Sa couleur est brun foncé, mais plus jaune à jaunâtre au moment de l'émergence.
 </t>
@@ -543,7 +557,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son hivernage il apparait en mai – juin. 
 Les adultes se regroupent sur les jeunes feuilles flottantes de nénuphar pour se nourrir et pour y pondre (au centre des feuilles, ce qui protège les futures larves de la prédation par les poissons). 
@@ -579,7 +595,9 @@
           <t>Espèce envahissante ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Normalement l'espèce est contenue par ses prédateurs naturels, mais avec le recul des amphibiens et oiseaux, cet insecte peut pulluler dans certains bassins d'ornement ou étendues naturelles de nénuphars. 
 </t>
@@ -610,7 +628,9 @@
           <t>Moyens de contrôle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les méthodes utilisées figure le nettoyage des feuilles au jet d'eau (pour de petits bassins décoratifs) : les insectes tombent dans l'eau, se noient ou sont dévorés par les poissons. 
 Les insectes peuvent aussi être éliminés manuellement, on peut aussi couper les feuilles atteintes et les brûler ou les enterrer. 
@@ -643,7 +663,9 @@
           <t>Autres espèces s'attaquant aux nénuphars</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nénuphars sont habituellement résistants aux maladies, mais peuvent aussi être attaqués par le puceron noir du nénuphar et la pyrale du nénuphar ou hydrocampe du potamot (Elophila nymphaeata).
 </t>
@@ -674,7 +696,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Imago
